--- a/Envios.xlsx
+++ b/Envios.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>nome</t>
   </si>
@@ -42,40 +42,28 @@
     <t>telefone</t>
   </si>
   <si>
-    <t>mensagem</t>
-  </si>
-  <si>
-    <t>Diego Hashtag</t>
-  </si>
-  <si>
-    <t>Alon Hashtag</t>
-  </si>
-  <si>
-    <t>E aí, fulano, tudo certo?</t>
-  </si>
-  <si>
-    <t>Coe fulano, bora surfar?</t>
-  </si>
-  <si>
-    <t>salve</t>
-  </si>
-  <si>
-    <t>tudo bem?</t>
-  </si>
-  <si>
-    <t>Oi</t>
-  </si>
-  <si>
-    <t>Chato</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>ad</t>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>Batata Mania</t>
+  </si>
+  <si>
+    <t>Churrasco Grego</t>
+  </si>
+  <si>
+    <t>Brasa</t>
+  </si>
+  <si>
+    <t>Qtall</t>
+  </si>
+  <si>
+    <t>Farmacia do Ze</t>
+  </si>
+  <si>
+    <t>Churros Manfredini</t>
+  </si>
+  <si>
+    <t>Poppys</t>
   </si>
 </sst>
 </file>
@@ -441,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" customWidth="1"/>
@@ -470,8 +458,8 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2">
+        <v>500</v>
       </c>
       <c r="C2">
         <v>11963862828</v>
@@ -482,8 +470,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3">
+        <v>200</v>
       </c>
       <c r="C3">
         <v>14998536591</v>
@@ -491,10 +479,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>350</v>
       </c>
       <c r="C4">
         <v>14998536591</v>
@@ -502,10 +490,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>900</v>
       </c>
       <c r="C5">
         <v>14998536591</v>
@@ -513,10 +501,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
       </c>
       <c r="C6">
         <v>14998536591</v>
@@ -525,12 +513,23 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>70</v>
       </c>
       <c r="C7">
+        <v>14998536591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
         <v>14998536591</v>
       </c>
     </row>

--- a/Envios.xlsx
+++ b/Envios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +530,7 @@
         <v>1000</v>
       </c>
       <c r="C8">
-        <v>14998536591</v>
+        <v>14996221590</v>
       </c>
     </row>
   </sheetData>

--- a/Envios.xlsx
+++ b/Envios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>nome</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Churros Manfredini</t>
-  </si>
-  <si>
-    <t>Poppys</t>
   </si>
 </sst>
 </file>
@@ -429,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,17 +519,6 @@
         <v>14998536591</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>1000</v>
-      </c>
-      <c r="C8">
-        <v>14996221590</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
